--- a/xlsx/country_comparison/mean_maritime_split.xlsx
+++ b/xlsx/country_comparison/mean_maritime_split.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">All</t>
   </si>
   <si>
-    <t xml:space="preserve">Net-zero fuels &amp; ships</t>
+    <t xml:space="preserve">Decarbonized fuels &amp; ships</t>
   </si>
   <si>
     <t xml:space="preserve">Shipping companies</t>
